--- a/public/template/Template Data Pembimbing.xlsx
+++ b/public/template/Template Data Pembimbing.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Punya saya\Ngulik\KP Icas\Kerja-Project\public\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -41,19 +46,19 @@
     <t>Tanggal Lahir</t>
   </si>
   <si>
-    <t>Kompetensi keahlian</t>
-  </si>
-  <si>
     <t>No Hp</t>
   </si>
   <si>
     <t>Alamat</t>
+  </si>
+  <si>
+    <t>Komperensi keahlian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -436,7 +441,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -456,10 +461,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -471,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
